--- a/result/Правила будови і безпечної експлуатації ліфтів.xlsx
+++ b/result/Правила будови і безпечної експлуатації ліфтів.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>Вопрос</t>
   </si>
@@ -25,25 +25,14 @@
     <t>Правильний ответ</t>
   </si>
   <si>
-    <t>У чому полягає основна відмінність між модернізацією і реконструкцією ліфтів і підйомників: (Пп. 4.4 і 4.8 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При модернізації не вносяться зміни в конструкцію, які підвищують її безпеку та технічний рівень, а при реконструкції ці зміни вносяться в конструкцію ліфтів
-При модернізації змінюються основні технічні характеристики ліфтів і підйомників, а при реконструкції не змінюються
-При модернізації не змінюються основні технічні характеристики ліфтів і підйомників, а при реконструкції ці характеристики змінюються
-</t>
-  </si>
-  <si>
-    <t>При модернізації не змінюються основні технічні характеристики ліфтів і підйомників, а при реконструкції ці характеристики змінюються</t>
-  </si>
-  <si>
-    <t>При перевірці ліфта з порожньою кабіною повинна бути проконтрольована робота: (П. 9.3.3 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лебідки
-Дверей кабіни і шахти
-Системи управління
-Пристроїв безпеки, крім перевіряються при динамічному випробуванні ліфта
+    <t>Які рішення вправі приймати роботодавець за підсумками проведеної експертизи ліфта: (П. 9.6.2 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рішення про подальшу експлуатацію ліфта в межах продовжуваного строку безпечної експлуатації
+Рішення про подальшу експлуатацію ліфта в межах продовжуваного строку безпечної експлуатації
+Рішення про ремонт ліфта
+Рішення про реконструкцію ліфта
+Рішення про модернізацію ліфта
 Всі відповіді вірні
 </t>
   </si>
@@ -51,17 +40,48 @@
     <t>Всі відповіді вірні</t>
   </si>
   <si>
-    <t>При визначенні місткості кабіни пасажирського ліфта маса однієї людини приймається на рівні: (П. 6.2.4 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80 кг
-75 кг
-100 кг
-70 кг
-</t>
-  </si>
-  <si>
-    <t>75 кг</t>
+    <t>Вимоги Правил до ліфтів, придбаних за кордоном: (П.п. 8.1, 8.2 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Експлуатація ліфтів, придбаних за кордоном, може починатися на підставі відповідних сертифікатів країни-виробника. Додаткові дозволи для застосування ліфтів в Україні не потрібні; паспорти та технічна документація на ліфти повинні бути викладені українською або російською мовою і відповідати вимогам цих Правил
+Експлуатація ліфтів, придбаних за кордоном, починається після одержання в установленому порядку дозволу згідно з вимогами НПАОП 0.00-4.05-2003; паспорти та технічна документація на ліфти повинні бути викладені українською мовою і відповідати вимогам цих Правил
+</t>
+  </si>
+  <si>
+    <t>Експлуатація ліфтів, придбаних за кордоном, починається після одержання в установленому порядку дозволу згідно з вимогами НПАОП 0.00-4.05-2003; паспорти та технічна документація на ліфти повинні бути викладені українською мовою і відповідати вимогам цих Правил</t>
+  </si>
+  <si>
+    <t>При проведенні періодичного і позачергового технічного огляду повинні бути присутніми:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суб'єкт господарювання або уповноважена ним особа
+Електромеханік, відповідальний за справний стан ліфтів
+Особа, відповідальна за організацію робіт з технічного обслуговування і ремонту ліфтів
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Вимоги Правил до реєстрації будівельних підйомників: (П.п. 10.32, 10.33 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Підйомники, призначені для роботи з провідником, до введення в експлуатацію підлягають реєстрації в територіальних органах спеціально уповноваженого центрального органу виконавчої влади з промислової безпеки та охорони праці
+Підйомники, призначені для роботи з провідником, до введення в експлуатацію забезпечуються індивідуальним номером під цим номером обліковуються в журналі обліку суб'єкта господарювання
+Підйомники, призначені для роботи з провідником і підйомники, призначені тільки для підйому вантажів без провідника, до введення в експлуатацію підлягають реєстрації в територіальних органах спеціально уповноваженого центрального органу виконавчої влади з промислової безпеки та охорони праці
+Підйомники, призначені тільки для підйому вантажів без провідника, до введення в експлуатацію підлягають реєстрації в територіальних органах спеціально уповноваженого центрального органу виконавчої влади з промислової безпеки та охорони праці
+</t>
+  </si>
+  <si>
+    <t>Підйомники, призначені для роботи з провідником, до введення в експлуатацію підлягають реєстрації в територіальних органах спеціально уповноваженого центрального органу виконавчої влади з промислової безпеки та охорони праці</t>
+  </si>
+  <si>
+    <t>Вимоги Правил до платформ будівельного підйомника для вагонеток і обладнаних висувним трапом: (П.п. 10.13, 10.14, 10.15 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платформи, призначені для підйому вагонеток або візків, повинні бути обладнані упорами або замками, які запобігають зсув вагонетки (візки) з місця
+Підйомники, обладнані висувним трапом, а також підйомники з поворотною платформою повинні бути обладнані пристроєм, який запобігає мимовільному переміщенню трапа або платформи
+У підйомників з висувним трапом відчинення дверей кабіни повинно бути зблоковане з висувним трапом так, щоб двері відкривалися тільки після висунення трапа на величину робочого ходу, а зворотне переміщення трапа могло відбуватись тільки при закритих дверях кабіни
+Всі відповіді вірні
+</t>
   </si>
   <si>
     <t>Біля всіх місць завантаження і розвантаження кабіни (платформи) повинні бути зроблені написи: (П. 10.29 ПУБЕЛ)</t>
@@ -78,39 +98,274 @@
     <t>Що Вказують масу граничного вантажу, який дозволяється піднімати і опускати</t>
   </si>
   <si>
-    <t>Дозвіл, відповідно до вимог НПАОП 0.00-4.05-2003, на виконання робіт на ліфтах потрібно: (П. 7.2.1 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тільки при виконанні монтажу та наладки ліфтів
-Тільки при виконанні ремонту ліфтів
-Тільки при виконанні ремонту і реконструкції ліфтів
-При виконанні монтажу, налагодження, ремонту, реконструкції та модернізації ліфтів
-</t>
-  </si>
-  <si>
-    <t>При виконанні монтажу, налагодження, ремонту, реконструкції та модернізації ліфтів</t>
-  </si>
-  <si>
-    <t>Вимоги Правил до розміщення упорів, буферів: (П.п. 6.4.21, 6.4.22 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Розміщення упорів і буферів в приямку повинно бути таким, щоб відстань від верхньої частини упора або буфера до опорної плити кабіни або противаги, коли кабіна (противага) перебуває в нижньому робочому положенні, було не більше 250мм
-Розміщення упорів і буферів в приямку повинно бути таким, щоб відстань від верхньої частини упора або буфера до опорної плити кабіни або противаги, коли кабіна (противага) перебуває в нижньому робочому положенні, було не більше 200мм
-</t>
-  </si>
-  <si>
-    <t>Розміщення упорів і буферів в приямку повинно бути таким, щоб відстань від верхньої частини упора або буфера до опорної плити кабіни або противаги, коли кабіна (противага) перебуває в нижньому робочому положенні, було не більше 200мм</t>
-  </si>
-  <si>
-    <t>Вимоги Правил до підходів в МП і блочне приміщення: (П.п. 6.5.17, 6.5.19 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Підходи до МП і блочного приміщеня повинні бути обладнані електричним освітленням з інтенсивністю не менше 30лк
-Підходи до МП і блочного приміщеня повинні бути вільними і доступними для персоналу
-Вхід в МП і блочне приміщення при необхідності повинен бути обладнаний сходами
-Пол підходів до МП і блочного приміщеня повинен мати тверде покриття
-Всі відповіді вірні
-</t>
+    <t>Чи допускається підтягування противаги при зупинці кабіни, але продовжує працювати лебідки ліфта (підйомника): (П. 6.1.16 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не допускається в лебідках з КТШ
+Допускається в лебідках з КТШ
+Допускається, якщо не спрацював вимикач уловлювачів (ВЛ) ліфта
+Допускається на ліфтах, встановлених після 2009 року
+Допускається в межах не більше ± 15см
+</t>
+  </si>
+  <si>
+    <t>Не допускається в лебідках з КТШ</t>
+  </si>
+  <si>
+    <t>Вимоги Правил до відстаней і зазорам в МП: (П.п. 6.5.12, 6.5.13, 6.5.14 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Якщо підлогу МП має кілька рівнів з різницею по висоті більш 500мм, підхід до підвищеної частини повинен бути забезпечений східцями або сходинками з поручнями
+Відстань від рівня чистої підлоги МП до низу балок, які використовуються для підвіски вантажопідйомних засобів, призначених для проведення ремонтних робіт (технологічна балка), має бути не менше 2000 мм
+Зазор між кромкою отвору в підлозі МП для проходження канатів і канатом повинен бути не менше 15мм і не більше 70мм. Навколо отворів повинні бути влаштовані бортики висотою не менше 50 мм
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Під час випробування уловлювачів миттєвої дії або миттєвої дії з буферним ефектом: (П. 9.3.10 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уловлювачі повинні зупиняти і утримувати на напрямних кабіну (противагу), яка рухається вниз з вантажем
+Випробування проводиться на спуску кабіни при роботі приводу
+Кабіна повинна бути з номінальним навантаженням і рухатися з номінальною швидкістю
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>При проведенні первинного технічного огляду повинні бути присутніми: (П. 9.2.6 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суб'єкт господарювання або уповноважена ним особа
+Особа, відповідальна за організацію робіт з технічного обслуговування і ремонту ліфтів
+Електромеханік, відповідальний за справний стан ліфтів
+Представник будівельної організації, яка побудувала будівельну частину ліфта
+Представник монтажної організації, яка змонтувала ліфт
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Відстань між виступаючими елементами кабіни і двері шахти (ДШ), крім розташованих на них взаємодіючих елементів: (П. 6.4.23 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не менше 25мм
+Не більше 25мм
+Не більше 15мм
+Не менш 15мм
+Не менш 35мм
+</t>
+  </si>
+  <si>
+    <t>Не менш 15мм</t>
+  </si>
+  <si>
+    <t>Вимоги цих Правил до будівельної частини ліфтів: (П. 3.1.6 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чи поширюються тільки на будівельну частину діючих ліфтів
+Чи поширюються на будівельну частину діючих ліфтів та ліфтів, прийнятих в експлуатацію до введення в дію цих Правил
+Не поширюються на будівельну частину діючих ліфтів при виконанні робіт по заміні та модернізації ліфтів
+</t>
+  </si>
+  <si>
+    <t>Не поширюються на будівельну частину діючих ліфтів при виконанні робіт по заміні та модернізації ліфтів</t>
+  </si>
+  <si>
+    <t>Вимоги Правил до майданчика між сходами і дверима МП і блочного приміщення: (П. 6.5.18 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Між дверима МП (блочного приміщення) і сходами повинна бути влаштована горизонтальна площадка
+Розміри її повинні дозволяти обертально-орним дверям МП повністю відкриватися
+При відкритті дверей повинно залишатися не менше 500мм вільного відстані між лінією відчинення дверей і пов'язаними з майданчику ступенями (сходами) або огорожею площадки
+Якщо різниця в рівнях більше 500мм, то ступені (сходи) і площадка повинні бути обладнані поручнями висотою не менше 900мм
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Противагу або балансувальний вантаж повинні бути розміщені: (П. 6.3.4 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В окремій від кабіни шахті
+У тій же шахті, що і кабіна, з переміщенням по напрямних кабіни
+В одній шахті з кабіною
+</t>
+  </si>
+  <si>
+    <t>В одній шахті з кабіною</t>
+  </si>
+  <si>
+    <t>Після закінчення граничного строку експлуатації ліфти (підйомники) підлягають: (П. 6.1.22 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зупинки і утилізації
+Експертному обстеженню уповноваженою організацією
+Зупинки на 1 місяць і потім продовження подальшої експлуатації
+Зупинки і заборони подальшої експлуатації ліфта
+</t>
+  </si>
+  <si>
+    <t>Експертному обстеженню уповноваженою організацією</t>
+  </si>
+  <si>
+    <t>Відстань між виступаючими елементами кабіни і противаги: (П. 6.4.23 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не менше 50мм
+Не більше 50мм
+Не менш 100мм
+Не більше 100мм
+Не менш 25мм
+</t>
+  </si>
+  <si>
+    <t>Не менше 50мм</t>
+  </si>
+  <si>
+    <t>Номінальна швидкість руху електричних багатокабінного пасажирських підйомників безперервної дії повинна бути: (П. 11.1.2 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не більше 0,5 м / c
+Не більше 1,0 / c
+Не більше 0,3 м / c
+Не більше 0,25 м / c
+Не більше 0,1 м / c
+</t>
+  </si>
+  <si>
+    <t>Не більше 0,3 м / c</t>
+  </si>
+  <si>
+    <t>При обгородження шахти ліфта склом повинні виконуватися умови: (П.п. 6.4.2 і 6.4.3 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Товщина скла повинна бути не менше 8 мм
+Товщина армованого скла повинна бути не менше 6 мм
+У разі обгородження склом товщиною менше 8 мм, крім ліфтів панорамного виконання, з боку прилеглих до неї площадок або сходів, на яких можуть перебувати пасажири, має бути додаткове огородження з суцільного сталевого листа товщиною не менше 1 мм або з іншого матеріалу, з міцністю і жорсткістю не менше ніж з суцільного сталевого товщиною 1мм
+Висота огорожі від рівня площадки або сходів повинна бути не менше 1000 мм, а при використанні горизонтально-розсувних ДШ висота огорожі з боку поверхової площадки не менше висоти отвору ДШ
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Вимоги Правил до сходів на вході в машинне і блочне приміщення: (П. 6.5.17 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внутрішня ширина сходів в світлі повинна бути не менше 550мм, глибина ступенів повинна бути не менше 35мм
+Внутрішня ширина сходів в світлі повинна бути не менше 350мм, глибина ступенів повинна бути не менше 25мм
+Внутрішня ширина сходів в світлі повинна бути не менше 300мм, глибина ступенів повинна бути не менше 15мм
+</t>
+  </si>
+  <si>
+    <t>Внутрішня ширина сходів в світлі повинна бути не менше 350мм, глибина ступенів повинна бути не менше 25мм</t>
+  </si>
+  <si>
+    <t>Випробування буферів кабіни повинно проводитися: (П. 9.3.6 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Один раз тільки після монтажу ліфта
+При повному і періодичному технічному огляді
+При повному, періодичному та позачерговому технічному огляді
+Тільки при позачерговому технічному огляді
+Тільки при періодичному технічному огляді
+</t>
+  </si>
+  <si>
+    <t>Один раз тільки після монтажу ліфта</t>
+  </si>
+  <si>
+    <t>Чи потрібна шахта для підйомників з провідником: (П. 10.3 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На нижній посадочній (завантажувальній) площадці повинна бути обладнано огорожу шляху руху кабіни і противаги на висоту не менше 3000мм від рівня площадки. Огорожа повинна бути забезпечена дверима
+На нижній посадочній (завантажувальній) площадці повинна бути обладнано огорожу шляху руху кабіни і противаги на висоту не менше 2000 мм від рівня площадки. Огорожа повинна бути забезпечена дверима
+Ні, шахта не потрібно
+Так, потрібно, підйомник повинен бути огороджений з усіх боків і на всю висоту
+Так, потрібно огорожу на нижньому майданчику на висоту не менше 2000 мм і верхньому майданчику на висоту не менше 2500мм від рівня площадки
+</t>
+  </si>
+  <si>
+    <t>На нижній посадочній (завантажувальній) площадці повинна бути обладнано огорожу шляху руху кабіни і противаги на висоту не менше 2000 мм від рівня площадки. Огорожа повинна бути забезпечена дверима</t>
+  </si>
+  <si>
+    <t>Верхні зазори для ліфтів із тяговим приводом повинні відповідати наступним вимогам: (П. 6.4.14 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Довжина напрямної кабіни (противаги) повинна дозволяти подальше їх спрямоване рух на відстань не менше 0,1 + 0,035V², де V - номінальна швидкість руху ліфта в м / с; над кабіною повинно бути достатньо місця для розміщення прямокутного блока розміром не менше 500 × 600 × 800мм
+Довжина напрямної кабіни (противаги) повинна дозволяти подальше їх спрямоване рух на відстань не менше 0,1 + 0,35V², де V - номінальна швидкість руху ліфта в м / с; над кабіною повинно бути достатньо місця для розміщення прямокутного блока розміром не менше 500 × 600 × 1000 мм
+</t>
+  </si>
+  <si>
+    <t>Довжина напрямної кабіни (противаги) повинна дозволяти подальше їх спрямоване рух на відстань не менше 0,1 + 0,035V², де V - номінальна швидкість руху ліфта в м / с; над кабіною повинно бути достатньо місця для розміщення прямокутного блока розміром не менше 500 × 600 × 800мм</t>
+  </si>
+  <si>
+    <t>Технічний огляд ліфтів проводять в наступні етапи: (П. 9.2.2 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вивчення експлуатаційних, конструкторських (проектних) і ремонтних документів
+Аналіз умов і режимів експлуатації
+Проведення огляду
+Проведення випробування і неруйнівного контролю (якщо це передбачено)
+Оцінка технічного стану
+Визначення умов і терміну подальшої експлуатації
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Допустиме відхилення робочої швидкості руху кабіни ліфта від номінальної: (П. 6.1.11 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В межах не більше + 15%
+Відхилення робочої швидкості кабіни від номінальної не допускається
+В межах не більше ± 15%
+В межах не більше ± 25%
+В межах не більше ± 5%
+</t>
+  </si>
+  <si>
+    <t>В межах не більше ± 15%</t>
+  </si>
+  <si>
+    <t>Вимоги Правил до розміщення ввідного пристрою (ВП): (П. 6.5.1 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВП має бути розміщено безпосередньо біля входу в МП (при його наявності)
+ВП має бути встановлено окремо від НКП
+Взаємне розміщення ПКУ і ВП має виключати можливість перекриття відчиненими дверима ПКУ зони обслуговування ВП
+Приводна рукоятка ВП повинна бути розміщена на висоті 1200-1600мм від рівня підлоги МП
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Хто може здійснювати керування вантажним ліфтом з зовнішнім керуванням і вантажним малим ліфтом: (П. 9.7.11 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Особи, які користуються цими ліфтами
+Тільки ліфтер
+Тільки електромеханік з ліфтів
+Тільки особа, відповідальна за організацію експлуатації ліфтів
+</t>
+  </si>
+  <si>
+    <t>Особи, які користуються цими ліфтами</t>
+  </si>
+  <si>
+    <t>Вимоги Правил до оглядових дверей, аварійних дверей і оглядовим люків: (П. 6.4.6 ПУБЕЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оглядові двері повинні бути не менше 1400мм висоти і 600мм ширини
+Аварійні двері повинні бути не менше 1800мм висоти і 350мм ширини
+Оглядові люки повинні бути не більше 500мм висоти і 500мм ширини
+Всі відповіді вірні
+</t>
+  </si>
+  <si>
+    <t>Вимоги Правил до уловлювачів будівельного підйомника: (П. 10.17 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приведення в дію уловлювачів підйомника з провідником повинно здійснюватися обмежувачем швидкості
+Приведення в дію уловлювачів підйомника з провідником може здійснюватися як обмежувачем швидкості, так і за допомогою їх механічного зв'язку з несучими канатами
+</t>
+  </si>
+  <si>
+    <t>Приведення в дію уловлювачів підйомника з провідником повинно здійснюватися обмежувачем швидкості</t>
   </si>
   <si>
     <t>Вимоги Правил до апарату управління будівельного підйомника: (П. 10.23 ПУБЕЛ)</t>
@@ -123,266 +378,16 @@
 </t>
   </si>
   <si>
-    <t>Ліфт знімається з реєстрації в територіальному органі спеціально уповноваженого центрального органу виконавчої влади з промислової безпеки та охорони праці в разі: (П. 9.1.8 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Після 25-ти років безперервної експлуатації
-Списання ліфта, який став непридатним для подальшої експлуатації, за заявою суб'єкта господарювання
-Списання ліфта, який став непридатним для подальшої експлуатації. Заява суб'єкта господарювання на списання ліфта не потрібно
-Після 20-ти років безперервної експлуатації
-</t>
-  </si>
-  <si>
-    <t>Списання ліфта, який став непридатним для подальшої експлуатації, за заявою суб'єкта господарювання</t>
-  </si>
-  <si>
-    <t>Конструкція ліфта повинна забезпечувати можливість: (П. 6.1.18 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Відкриття ДК зсередини пасажирами при зупинці кабіни між поверхами
-Евакуації пасажирів обслуговуючим персоналом з кабіни мимовільно зупинився ліфта
-Самостійної звільнення пасажирів з кабіни, мимовільно зупинився ліфта
-Евакуації пасажирів мешканцями будинку з кабіни мимовільно зупинився ліфта
-Евакуації пасажирів консьєржа з кабіни мимовільно зупинився ліфта
-</t>
-  </si>
-  <si>
-    <t>Евакуації пасажирів обслуговуючим персоналом з кабіни мимовільно зупинився ліфта</t>
-  </si>
-  <si>
-    <t>Позачергове технічне опосвідчення ліфта повинно бути проведено, якщо при ремонті замінили (з оглядом, перевіркою на функціонування і випробуванням): (П.п. 9.5.2, 9.5.3 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ловители кабіни або противаги
-Лебідка ліфта після капітального ремонту
-Гідравлічний буфер кабіни або противаги
-Обмежувач швидкості (ОШ)
-Пристрій зупинки кабіни у гідравлічного ліфта
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Під час випробування уловлювачів необхідно виконати наступні умови: (П.п. 9.3.11, 9.3.12 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уловлювачі, які приводяться в дію від обмежувача швидкості (ОШ), випробовуються без обриву та імітації обриву тягових канатів (ланцюгів)
-Уловлювачі, які приводяться в дію пристроєм, який спрацьовує від обриву або слабини всіх тягових канатів (ланцюгів), випробовуються від дії цього пристрою
-Кабіна (противага) повинні бути розміщені в нижній частині шахти
-У разі несправності уловлювачів повинно бути виключене падіння кабіни (противаги) на відстань більше 200 мм за рахунок використання будь-яких пристроїв, встановлених в шахті на період випробування
-Шлях, який проходить кабіна (противага) з моменту початку падіння до посадки її на уловлювачі, повинен бути не більше 100мм
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Вимоги Правил до кута нахилу сходів на вході в МП і блочне приміщення: (П. 6.5.17 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сходи, висота яких перевищує 1000 мм, в приставлений положенні для доступу повинні утворювати кут нахилу до горизонталі від 65 ° до 75 °
-Сходи, висота яких перевищує 2000 мм, в приставлений положенні для доступу повинні утворювати кут нахилу до горизонталі від 65 ° до 75 °
-Сходи, висота яких перевищує 1500мм, в приставлений положенні для доступу повинні утворювати кут нахилу до горизонталі від 65 ° до 75 °
-Сходи, висота яких перевищує 1500мм, в приставлений положенні для доступу повинні утворювати кут нахилу до горизонталі від 75 ° до 85 °
-</t>
-  </si>
-  <si>
-    <t>Сходи, висота яких перевищує 1500мм, в приставлений положенні для доступу повинні утворювати кут нахилу до горизонталі від 65 ° до 75 °</t>
-  </si>
-  <si>
-    <t>Відстань від зовнішньої поверхні стінок кабіни до внутрішньої поверхні огорожі шахти: (П. 6.4.23 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не більше 650мм з боку противаги; не більше 350мм з інших сторін
-Не менш 650мм з боку противаги; не більше 300мм з інших сторін
-</t>
-  </si>
-  <si>
-    <t>Не більше 650мм з боку противаги; не більше 350мм з інших сторін</t>
-  </si>
-  <si>
-    <t>Відстань між виступаючими елементами кабіни (противаги) і деталями кріплення напрямних: (П. 6.4.23 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не менше 25мм
-Не менш 10мм
-Не більше 10мм
-Не менш 50мм
-Не менш 35мм
-</t>
-  </si>
-  <si>
-    <t>Не менш 10мм</t>
-  </si>
-  <si>
-    <t>Під час випробування буферів повинно бути: (П. 9.3.8 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виключено дію пристрою уповільнення кабіни (переведення з великій швидкості на малу)
-Відключення електродвигуна перед посадкою кабіни або противаги на буфер здійснюється кінцевим вимикачем
-Виключено дію пристрою точної зупинки на нижній і верхній зупинках
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>При огляді ліфта повинні бути перевірені: (П. 9.3.2 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наявність і стан заводських табличок і графічних символів
-Наявність і стан технічної документації
-Наявність дозволу на експлуатацію (технічне обслуговування) і ремонт ліфтів
-Відповідність установки ліфта установчому кресленню
-Наявність в установчому кресленні і в принциповій електричній схемі записів і підтверджує підпису відповідальної особи про відповідність виконаних монтажних робіт кресленням
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Вимоги Правил до міцності стін шахти ліфта виготовленої з металевого листа або інших схожих матеріалів: (П. 6.4.4 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При додатку зовнішнього зусилля 300Н на площі 5см² перпендикулярно до огорожі пружний прогин не більше 25мм без залишкової деформації
-При додатку зовнішнього зусилля 100Н на площі 5см² перпендикулярно до огорожі пружний прогин не більше 15мм без залишкової деформації
-При додатку зовнішнього зусилля 300Н на площі 5см² перпендикулярно до огорожі пружний прогин не більше 15мм без залишкової деформації
-При додатку зовнішнього зусилля 300Н на площі 5см² перпендикулярно до огорожі пружний прогин не більше 50мм без залишкової деформації
-</t>
-  </si>
-  <si>
-    <t>При додатку зовнішнього зусилля 300Н на площі 5см² перпендикулярно до огорожі пружний прогин не більше 15мм без залишкової деформації</t>
-  </si>
-  <si>
-    <t>Суб'єкт господарювання, для організації належного технічного обслуговування, огляду та ремонту ліфтів, повинен: (П. 9.7.1 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Призначити наказом працівників, відповідальних за організацію робіт з технічного обслуговування і ремонту ліфтів
-Призначити наказом працівників, відповідальних за організацію експлуатації ліфтів
-Призначити наказом працівників, відповідальних за справний стан ліфтів (електромеханіків з ліфтів)
-Призначити наказом працівників, відповідальних за щоденний огляд і нагляд за роботою ліфтів (ліфтерів і операторів диспетчерського зв'язку)
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Розміри відстаней між внутрішньою поверхнею огорожі шахти з боку входу в кабіну і стулками, або обрамленням вхідного прорізу кабіни, або її порогом, зазначені в таблиці 3, можуть бути збільшені у випадках: (П. 6.4.24 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Якщо є можливість відкривання зсередини ДК поза зоною поверхової площадки; при установці паралельно зазначеної поверхні огорожі шахти додаткової огорожі, ширина якого дорівнює ширині прорізу ДК плюс 50мм на кожну сторону, виконаного з матеріалу, який допускається для огорожі шахти
-Якщо виключена можливість відкривання зсередини ДК поза зоною поверхової площадки; при установці паралельно зазначеної поверхні огорожі шахти додаткової огорожі, ширина якого дорівнює ширині прорізу ДК плюс 25мм на кожну сторону, виконаного з матеріалу, який допускається для огорожі шахти
-</t>
-  </si>
-  <si>
-    <t>Якщо виключена можливість відкривання зсередини ДК поза зоною поверхової площадки; при установці паралельно зазначеної поверхні огорожі шахти додаткової огорожі, ширина якого дорівнює ширині прорізу ДК плюс 25мм на кожну сторону, виконаного з матеріалу, який допускається для огорожі шахти</t>
-  </si>
-  <si>
-    <t>Вимоги Правил до уловлювачів будівельного підйомника: (П. 10.17 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приведення в дію уловлювачів підйомника з провідником повинно здійснюватися обмежувачем швидкості
-Приведення в дію уловлювачів підйомника з провідником може здійснюватися як обмежувачем швидкості, так і за допомогою їх механічного зв'язку з несучими канатами
-</t>
-  </si>
-  <si>
-    <t>Приведення в дію уловлювачів підйомника з провідником повинно здійснюватися обмежувачем швидкості</t>
-  </si>
-  <si>
-    <t>Вимоги Правил до дверей будівельного підйомника з провідником: (П. 10.16 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Двері кабіни підйомника з провідником повинні замикатися відмовлятися ключем, що знаходяться у провідника
-Двері кабіни підйомника з провідником повинні замикатися відмовлятися ключем, що знаходяться у охоронця будівельного об'єкта
-</t>
-  </si>
-  <si>
-    <t>Двері кабіни підйомника з провідником повинні замикатися відмовлятися ключем, що знаходяться у провідника</t>
-  </si>
-  <si>
-    <t>Вимоги Правил до пристрою підходів до машинного і блочного приміщень: (П. 6.5.17 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ширина підходу до приміщень повинна бути не менше 650мм, а висота не менше 1800мм
-Дозволяється обладнати підходи до МП і блочного приміщень на похилих дахах та пожежних сходах
-Дозволяється місцеве зменшення висоти (через порогів, труб, поперечних балок) до 1500мм
-При необхідності влаштування сходів, до них повинні примикати площадки розміром не менше 1000 × 1000 мм
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Періодичному технічному огляду підлягають ліфти: (П. 9.4.1 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не рідше одного разу на 12 місяців
-Не рідше одного разу на 36 місяців
-Не рідше одного разу на 24 місяці
-Не рідше одного разу на 6 місяців
-Не рідше одного разу на 48 місяців
-</t>
-  </si>
-  <si>
-    <t>Не рідше одного разу на 24 місяці</t>
-  </si>
-  <si>
-    <t>Вимоги Правил до пристрою машинного приміщення: (П.п. 6.5.10, 6.5.11 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вільна висота для переміщення по МП повинна бути не менше 1800мм
-Над обертовими частинами машини повинен бути вільний простір по вертикалі не менше 300мм
-Доступ до майданчиків для обслуговування обладнання в МП повинен мати ширину не менше 500мм
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Вимоги Правил до розміщення ліфтового обладнання в МП: (П. 6.5.1 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">У МП повинні встановлюватися лебідка, ПКУ, трансформатори, перетворювачі, ввідний пристрій (ВУ), обмежувач швидкості (ОШ) і т.п
-У ліфтах, які не мають МП, вказане обладнання може бути встановлено в шахті ліфта, приямку або на поверхових майданчиках за умови можливості його обслуговування і неможливості доступу до нього випадкових осіб
-При розміщенні в МП обладнання двох і більше ліфтів, на лебідках, НКП, ВУ повинні бути нанесені позначення про належність їх до певного ліфта
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Чи допускається установка ліфтового обладнання під верхнім перекриттям шахти: (П. 6.4.25 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ні, не допускається
-Допускається встановлювати тільки обмежувач швидкості і відвідні блоки
-Допускається установка канатотягового шківа (КТШ), напрямних блоків, обмежувача швидкості (ОШ), елементів підвіски канатів і т.п. за умови забезпечення можливості їх обслуговування
-Допускається встановлювати тільки лебідку ліфта
-</t>
-  </si>
-  <si>
-    <t>Допускається установка канатотягового шківа (КТШ), напрямних блоків, обмежувача швидкості (ОШ), елементів підвіски канатів і т.п. за умови забезпечення можливості їх обслуговування</t>
-  </si>
-  <si>
-    <t>При розміщенні обладнання двох і більше ліфтів в одній загальній шахті, не розділена по всій висоті перегородкою: (П. 9.1.4 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В установчому кресленні кожного ліфта повинна бути зображена загальна шахта
-Визначена нумерація ліфтів
-Вказані відстані між елементами обладнання суміжних ліфтів
-Всі відповіді вірні
-</t>
-  </si>
-  <si>
-    <t>Норми бракування сталевих канатів, на яких підвішується кабіна і противага: (П. 6.1.20 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наведено в додатку №2 до цих Правил
-Наведено в додатку №1 до цих Правил
-Наведено в сертифікаті заводу-виготовлювача
-Не вказуються, сталеві канати експлуатуються до виходу з ладу
-</t>
-  </si>
-  <si>
-    <t>Наведено в додатку №1 до цих Правил</t>
-  </si>
-  <si>
-    <t>Вимоги Правил до міцності ступенів і пристрою сходів на вході в МП і блочне приміщення: (П. 6.5.17 ПУБЕЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сходинки повинні бути розраховані на навантаження не менше 3500Н
-Сходинки повинні бути розраховані на навантаження не менше 1500Н
-Сходинки повинні бути розраховані на навантаження не менше 1000Н
-Сходинки повинні бути розраховані на навантаження не менше 2500Н
-</t>
-  </si>
-  <si>
-    <t>Сходинки повинні бути розраховані на навантаження не менше 1500Н</t>
+    <t>Ліфт забезпечується табличкою або написом, де повинні бути вказані: (П. 7.1.3 ПУБЕЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найменування або товарний знак підприємства-виготовлювача
+Вантажопідйомність ліфта
+Заводський номер
+Рік виготовлення
+Табличка встановлюється на каркасі кабіни, повинна бути видна після монтажу і зберігатися протягом всього терміну експлуатації ліфта
+Всі відповіді вірні
+</t>
   </si>
 </sst>
 </file>
@@ -761,157 +766,160 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -923,18 +931,18 @@
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -978,7 +986,7 @@
         <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1000,7 +1008,7 @@
         <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1011,18 +1019,18 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1033,18 +1041,18 @@
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1055,7 +1063,7 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
